--- a/ロブスターゲーム_スケジュール表.xlsx
+++ b/ロブスターゲーム_スケジュール表.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -508,39 +506,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,12 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,7 +879,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -892,82 +890,82 @@
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="15">
+      <c r="C5" s="17"/>
+      <c r="D5" s="14">
         <v>9</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>10</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>11</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>16</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>17</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>23</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>24</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>30</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>31</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>6</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>7</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <v>13</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>14</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>20</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3"/>
@@ -984,15 +982,15 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="3"/>
@@ -1009,13 +1007,13 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="17"/>
+      <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="3"/>
@@ -1032,13 +1030,13 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="17"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3"/>
@@ -1055,13 +1053,13 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="17"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3"/>
@@ -1078,13 +1076,13 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="17"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3"/>
@@ -1101,24 +1099,24 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="18"/>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1163,10 +1161,10 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
@@ -1174,36 +1172,36 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
@@ -1211,10 +1209,10 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
@@ -1222,10 +1220,10 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
@@ -1233,10 +1231,10 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
@@ -1252,30 +1250,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>